--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -458,7 +458,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationUsageJAMIAdditional_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationUsageJAMIAdditional_VS</t>
   </si>
   <si>
     <t>RXO-7</t>
@@ -848,10 +848,10 @@
   </si>
   <si>
     <t>BIDなどは「施設特有の時間」として定義される。たとえば、施設がBIDを「つねに朝7時と夕方6時」であると指定することがある。この指定が不適切であれば、BIDというコードは使うべきではない。その代わり、HL7が定義したBIDのコードではなく、その施設特有のコードで明示的に示すべきであり、構造化された表現を使うべきである（この場合、2回のイベントの時刻を指定する必要がある）。  
-【JP Core仕様】頓用指示時にはJAMI処方・注射オーダ標準用法規格の表6 イベント区分、イベント詳細区分(“http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationAsNeededConditionJAMI_CS”)を推奨するが、MERIT-9 処方オーダ 表5 頓用指示(“http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationAsNeededConditionMERIT9_CS”) を使用してもよい。</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationUsageInjection_VS</t>
+【JP Core仕様】頓用指示時にはJAMI処方・注射オーダ標準用法規格の表6 イベント区分、イベント詳細区分(“http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationAsNeededConditionJAMI_CS”)を推奨するが、MERIT-9 処方オーダ 表5 頓用指示(“http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationAsNeededConditionMERIT9_CS”) を使用してもよい。</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationUsageInjection_VS</t>
   </si>
   <si>
     <t>Timing.code</t>
@@ -899,7 +899,7 @@
     <t>A coded specification of the anatomic site where the medication first enters the body.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationBodySiteJAMIExternal_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationBodySiteJAMIExternal_VS</t>
   </si>
   <si>
     <t>.approachSiteCode</t>
@@ -1005,7 +1005,7 @@
     <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationRouteHL70162_VS</t>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationRouteHL70162_VS</t>
   </si>
   <si>
     <t>.routeCode</t>
@@ -1107,7 +1107,7 @@
     <t>他のコードシステムへの変換や代替のコードシステムを使ってエンコードしてもよい。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIBasicUsage_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationMethodJAMIBasicUsage_VS</t>
   </si>
   <si>
     <t>Dosage.method.coding.id</t>
@@ -1243,7 +1243,7 @@
     <t>投与⽅法に対応するJAMI 用法コード表基本用法2桁コードを識別するURI。２桁コードurn:oid:1.2.392.200250.2.2.20.40</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIDetailUsage_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationMethodJAMIDetailUsage_VS</t>
   </si>
   <si>
     <t>urn:oid:1.2.392.200250.2.2.20.40</t>
@@ -1295,7 +1295,7 @@
     <t>このtypeに値が指定されていなければ、"ordered"であることが想定される。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationIngredientStrengthStrengthType_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationIngredientStrengthStrengthType_VS</t>
   </si>
   <si>
     <t>RXO-21; RXE-23</t>
@@ -1798,7 +1798,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="76.41015625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="81.4375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="77.19140625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>JP</t>
+    <t>Japan</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -252,167 +252,167 @@
     <t>薬の服用方法・服用した方法、または服用すべき方法</t>
   </si>
   <si>
+    <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=INT]</t>
+  </si>
+  <si>
+    <t>Dosage.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Dosage.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>dosageComment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_DosageComment}
+</t>
+  </si>
+  <si>
+    <t>用法コメント</t>
+  </si>
+  <si>
+    <t>用法コメントを格納するための拡張</t>
+  </si>
+  <si>
+    <t>device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_Device}
+</t>
+  </si>
+  <si>
+    <t>投与装置</t>
+  </si>
+  <si>
+    <t>投与装置を格納する拡張</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_Line}
+</t>
+  </si>
+  <si>
+    <t>指示ライン</t>
+  </si>
+  <si>
+    <t>指示ラインを格納する拡張</t>
+  </si>
+  <si>
+    <t>lineComment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_LineComment}
+</t>
+  </si>
+  <si>
+    <t>ラインコメント</t>
+  </si>
+  <si>
+    <t>ラインコメントを格納するための拡張</t>
+  </si>
+  <si>
+    <t>Dosage.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Dosage.sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integer
+</t>
+  </si>
+  <si>
+    <t>服用指示の順番</t>
+  </si>
+  <si>
+    <t>どの服用指示を適応するか判断するかについての順序を示したもの</t>
+  </si>
+  <si>
+    <t>32 bitの数値。これ以上の値であれば10進数を使うこと。</t>
+  </si>
+  <si>
+    <t>もし、複数の服用法(Dosage)でsequenceの数値が同じであれば、その指示が同時に扱われることを示している。sequenceの数値が異なれば、服用指示(Dosage)の順番を意図している。</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=INT]</t>
-  </si>
-  <si>
-    <t>Dosage.id</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Dosage.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>dosageComment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_DosageComment}
-</t>
-  </si>
-  <si>
-    <t>用法コメント</t>
-  </si>
-  <si>
-    <t>用法コメントを格納するための拡張</t>
-  </si>
-  <si>
-    <t>device</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_Device}
-</t>
-  </si>
-  <si>
-    <t>投与装置</t>
-  </si>
-  <si>
-    <t>投与装置を格納する拡張</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_Line}
-</t>
-  </si>
-  <si>
-    <t>指示ライン</t>
-  </si>
-  <si>
-    <t>指示ラインを格納する拡張</t>
-  </si>
-  <si>
-    <t>lineComment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_LineComment}
-</t>
-  </si>
-  <si>
-    <t>ラインコメント</t>
-  </si>
-  <si>
-    <t>ラインコメントを格納するための拡張</t>
-  </si>
-  <si>
-    <t>Dosage.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Dosage.sequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">integer
-</t>
-  </si>
-  <si>
-    <t>服用指示の順番</t>
-  </si>
-  <si>
-    <t>どの服用指示を適応するか判断するかについての順序を示したもの</t>
-  </si>
-  <si>
-    <t>32 bitの数値。これ以上の値であれば10進数を使うこと。</t>
-  </si>
-  <si>
-    <t>もし、複数の服用法(Dosage)でsequenceの数値が同じであれば、その指示が同時に扱われることを示している。sequenceの数値が異なれば、服用指示(Dosage)の順番を意図している。</t>
   </si>
   <si>
     <t>.text</t>
@@ -2023,10 +2023,10 @@
         <v>75</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>75</v>
@@ -2034,7 +2034,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2045,25 +2045,25 @@
         <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -2114,22 +2114,22 @@
         <v>75</v>
       </c>
       <c r="AE3" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AF3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>75</v>
@@ -2137,11 +2137,11 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
@@ -2160,16 +2160,16 @@
         <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
@@ -2207,19 +2207,19 @@
         <v>75</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AB4" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AC4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AC4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>76</v>
@@ -2231,10 +2231,10 @@
         <v>75</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>75</v>
@@ -2242,10 +2242,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>75</v>
@@ -2267,13 +2267,13 @@
         <v>75</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -2324,7 +2324,7 @@
         <v>75</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>76</v>
@@ -2336,7 +2336,7 @@
         <v>75</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>75</v>
@@ -2347,10 +2347,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>75</v>
@@ -2372,13 +2372,13 @@
         <v>75</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -2429,7 +2429,7 @@
         <v>75</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>76</v>
@@ -2441,7 +2441,7 @@
         <v>75</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>75</v>
@@ -2452,10 +2452,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>75</v>
@@ -2477,13 +2477,13 @@
         <v>75</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -2534,7 +2534,7 @@
         <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>75</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>75</v>
@@ -2557,10 +2557,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>75</v>
@@ -2582,13 +2582,13 @@
         <v>75</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -2639,7 +2639,7 @@
         <v>75</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>76</v>
@@ -2651,7 +2651,7 @@
         <v>75</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>75</v>
@@ -2662,11 +2662,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2679,25 +2679,25 @@
         <v>75</v>
       </c>
       <c r="H9" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="I9" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J9" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="N9" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="O9" t="s" s="2">
         <v>75</v>
@@ -2746,7 +2746,7 @@
         <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>76</v>
@@ -2758,10 +2758,10 @@
         <v>75</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>75</v>
@@ -2769,7 +2769,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -2780,7 +2780,7 @@
         <v>76</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>75</v>
@@ -2789,22 +2789,22 @@
         <v>75</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>75</v>
@@ -2853,19 +2853,19 @@
         <v>75</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>129</v>
@@ -2887,19 +2887,19 @@
         <v>76</v>
       </c>
       <c r="F11" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="J11" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J11" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>132</v>
@@ -2966,13 +2966,13 @@
         <v>76</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>129</v>
@@ -3003,7 +3003,7 @@
         <v>75</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>138</v>
@@ -3077,7 +3077,7 @@
         <v>75</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>129</v>
@@ -3099,19 +3099,19 @@
         <v>76</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="J13" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="G13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J13" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>147</v>
@@ -3176,13 +3176,13 @@
         <v>76</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>129</v>
@@ -3204,7 +3204,7 @@
         <v>76</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>75</v>
@@ -3283,19 +3283,19 @@
         <v>76</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>156</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15">
@@ -3311,25 +3311,25 @@
         <v>76</v>
       </c>
       <c r="F15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J15" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J15" t="s" s="2">
+      <c r="K15" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3380,22 +3380,22 @@
         <v>75</v>
       </c>
       <c r="AE15" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>75</v>
@@ -3407,7 +3407,7 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3426,16 +3426,16 @@
         <v>75</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3473,19 +3473,19 @@
         <v>75</v>
       </c>
       <c r="AA16" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AB16" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AB16" t="s" s="2">
+      <c r="AC16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD16" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AC16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD16" t="s" s="2">
+      <c r="AE16" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>76</v>
@@ -3497,10 +3497,10 @@
         <v>75</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>75</v>
@@ -3512,7 +3512,7 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3525,25 +3525,25 @@
         <v>75</v>
       </c>
       <c r="H17" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="I17" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>75</v>
@@ -3592,7 +3592,7 @@
         <v>75</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>76</v>
@@ -3604,10 +3604,10 @@
         <v>75</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>75</v>
@@ -3635,7 +3635,7 @@
         <v>75</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>161</v>
@@ -3709,7 +3709,7 @@
         <v>75</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>166</v>
@@ -3731,7 +3731,7 @@
         <v>76</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>75</v>
@@ -3740,7 +3740,7 @@
         <v>75</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>168</v>
@@ -3808,7 +3808,7 @@
         <v>76</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>75</v>
@@ -3836,25 +3836,25 @@
         <v>76</v>
       </c>
       <c r="F20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J20" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J20" t="s" s="2">
+      <c r="K20" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3905,22 +3905,22 @@
         <v>75</v>
       </c>
       <c r="AE20" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>75</v>
@@ -3932,7 +3932,7 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3951,16 +3951,16 @@
         <v>75</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3998,19 +3998,19 @@
         <v>75</v>
       </c>
       <c r="AA21" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AB21" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AB21" t="s" s="2">
+      <c r="AC21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD21" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AC21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD21" t="s" s="2">
+      <c r="AE21" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>76</v>
@@ -4022,10 +4022,10 @@
         <v>75</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>75</v>
@@ -4044,7 +4044,7 @@
         <v>76</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>75</v>
@@ -4053,7 +4053,7 @@
         <v>75</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>178</v>
@@ -4119,13 +4119,13 @@
         <v>76</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>182</v>
@@ -4147,7 +4147,7 @@
         <v>76</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>75</v>
@@ -4156,7 +4156,7 @@
         <v>75</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>184</v>
@@ -4226,13 +4226,13 @@
         <v>76</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>190</v>
@@ -4254,7 +4254,7 @@
         <v>76</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>75</v>
@@ -4263,7 +4263,7 @@
         <v>75</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>184</v>
@@ -4331,13 +4331,13 @@
         <v>76</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>190</v>
@@ -4359,7 +4359,7 @@
         <v>76</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>75</v>
@@ -4368,7 +4368,7 @@
         <v>75</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>197</v>
@@ -4438,13 +4438,13 @@
         <v>76</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>203</v>
@@ -4466,7 +4466,7 @@
         <v>76</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>75</v>
@@ -4475,7 +4475,7 @@
         <v>75</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>197</v>
@@ -4545,13 +4545,13 @@
         <v>76</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>203</v>
@@ -4573,7 +4573,7 @@
         <v>76</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>75</v>
@@ -4582,7 +4582,7 @@
         <v>75</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>209</v>
@@ -4650,13 +4650,13 @@
         <v>76</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>216</v>
@@ -4678,7 +4678,7 @@
         <v>76</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>75</v>
@@ -4687,7 +4687,7 @@
         <v>75</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>184</v>
@@ -4757,13 +4757,13 @@
         <v>76</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>203</v>
@@ -4785,7 +4785,7 @@
         <v>76</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>75</v>
@@ -4794,7 +4794,7 @@
         <v>75</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>184</v>
@@ -4862,13 +4862,13 @@
         <v>76</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>203</v>
@@ -4890,7 +4890,7 @@
         <v>76</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>75</v>
@@ -4899,7 +4899,7 @@
         <v>75</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>197</v>
@@ -4967,13 +4967,13 @@
         <v>76</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>203</v>
@@ -4995,7 +4995,7 @@
         <v>76</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>75</v>
@@ -5004,7 +5004,7 @@
         <v>75</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>197</v>
@@ -5072,13 +5072,13 @@
         <v>76</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>203</v>
@@ -5100,7 +5100,7 @@
         <v>76</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>75</v>
@@ -5109,7 +5109,7 @@
         <v>75</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>209</v>
@@ -5177,13 +5177,13 @@
         <v>76</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>216</v>
@@ -5214,7 +5214,7 @@
         <v>75</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>209</v>
@@ -5286,10 +5286,10 @@
         <v>75</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>75</v>
@@ -5317,7 +5317,7 @@
         <v>75</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>247</v>
@@ -5391,10 +5391,10 @@
         <v>75</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>75</v>
@@ -5422,7 +5422,7 @@
         <v>75</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>209</v>
@@ -5498,7 +5498,7 @@
         <v>75</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>260</v>
@@ -5520,7 +5520,7 @@
         <v>76</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>75</v>
@@ -5529,7 +5529,7 @@
         <v>75</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>262</v>
@@ -5597,13 +5597,13 @@
         <v>76</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>266</v>
@@ -5625,7 +5625,7 @@
         <v>76</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>75</v>
@@ -5634,7 +5634,7 @@
         <v>75</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>138</v>
@@ -5700,13 +5700,13 @@
         <v>76</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>273</v>
@@ -5728,7 +5728,7 @@
         <v>76</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>75</v>
@@ -5737,7 +5737,7 @@
         <v>75</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>275</v>
@@ -5805,13 +5805,13 @@
         <v>76</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>279</v>
@@ -5833,7 +5833,7 @@
         <v>76</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>75</v>
@@ -5842,7 +5842,7 @@
         <v>75</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>138</v>
@@ -5910,13 +5910,13 @@
         <v>76</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>287</v>
@@ -5938,25 +5938,25 @@
         <v>76</v>
       </c>
       <c r="F40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J40" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J40" t="s" s="2">
+      <c r="K40" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6007,22 +6007,22 @@
         <v>75</v>
       </c>
       <c r="AE40" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>75</v>
@@ -6034,7 +6034,7 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6053,16 +6053,16 @@
         <v>75</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6100,19 +6100,19 @@
         <v>75</v>
       </c>
       <c r="AA41" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AB41" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AB41" t="s" s="2">
+      <c r="AC41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD41" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AC41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD41" t="s" s="2">
+      <c r="AE41" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>76</v>
@@ -6124,10 +6124,10 @@
         <v>75</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>75</v>
@@ -6217,7 +6217,7 @@
         <v>75</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>76</v>
@@ -6229,7 +6229,7 @@
         <v>75</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>75</v>
@@ -6322,7 +6322,7 @@
         <v>75</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>76</v>
@@ -6334,7 +6334,7 @@
         <v>75</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>75</v>
@@ -6365,7 +6365,7 @@
         <v>75</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>300</v>
@@ -6441,7 +6441,7 @@
         <v>75</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>306</v>
@@ -6463,19 +6463,19 @@
         <v>76</v>
       </c>
       <c r="F45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="J45" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>309</v>
@@ -6542,13 +6542,13 @@
         <v>76</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>314</v>
@@ -6570,7 +6570,7 @@
         <v>76</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>75</v>
@@ -6579,7 +6579,7 @@
         <v>75</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>138</v>
@@ -6647,13 +6647,13 @@
         <v>76</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>321</v>
@@ -6675,25 +6675,25 @@
         <v>76</v>
       </c>
       <c r="F47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J47" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J47" t="s" s="2">
+      <c r="K47" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6744,22 +6744,22 @@
         <v>75</v>
       </c>
       <c r="AE47" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>75</v>
@@ -6771,7 +6771,7 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6790,16 +6790,16 @@
         <v>75</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6837,19 +6837,19 @@
         <v>75</v>
       </c>
       <c r="AA48" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AB48" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AB48" t="s" s="2">
+      <c r="AC48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD48" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AC48" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD48" t="s" s="2">
+      <c r="AE48" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>76</v>
@@ -6861,10 +6861,10 @@
         <v>75</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>75</v>
@@ -6954,7 +6954,7 @@
         <v>75</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>76</v>
@@ -6966,7 +6966,7 @@
         <v>75</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>75</v>
@@ -6997,7 +6997,7 @@
         <v>75</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>300</v>
@@ -7073,7 +7073,7 @@
         <v>75</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>306</v>
@@ -7095,19 +7095,19 @@
         <v>76</v>
       </c>
       <c r="F51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="J51" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>309</v>
@@ -7174,13 +7174,13 @@
         <v>76</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>314</v>
@@ -7202,7 +7202,7 @@
         <v>76</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>75</v>
@@ -7211,7 +7211,7 @@
         <v>75</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>138</v>
@@ -7281,13 +7281,13 @@
         <v>76</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>338</v>
@@ -7309,25 +7309,25 @@
         <v>76</v>
       </c>
       <c r="F53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J53" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J53" t="s" s="2">
+      <c r="K53" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7378,22 +7378,22 @@
         <v>75</v>
       </c>
       <c r="AE53" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>75</v>
@@ -7405,7 +7405,7 @@
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7424,16 +7424,16 @@
         <v>75</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7471,19 +7471,19 @@
         <v>75</v>
       </c>
       <c r="AA54" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AB54" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AB54" t="s" s="2">
+      <c r="AC54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD54" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AC54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD54" t="s" s="2">
+      <c r="AE54" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>76</v>
@@ -7495,10 +7495,10 @@
         <v>75</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>75</v>
@@ -7588,7 +7588,7 @@
         <v>75</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>76</v>
@@ -7600,7 +7600,7 @@
         <v>75</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>75</v>
@@ -7631,7 +7631,7 @@
         <v>75</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>300</v>
@@ -7690,7 +7690,7 @@
         <v>75</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AE56" t="s" s="2">
         <v>305</v>
@@ -7705,7 +7705,7 @@
         <v>75</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>306</v>
@@ -7729,7 +7729,7 @@
         <v>76</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>75</v>
@@ -7738,7 +7738,7 @@
         <v>75</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>300</v>
@@ -7812,7 +7812,7 @@
         <v>75</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>306</v>
@@ -7834,25 +7834,25 @@
         <v>76</v>
       </c>
       <c r="F58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J58" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J58" t="s" s="2">
+      <c r="K58" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7903,22 +7903,22 @@
         <v>75</v>
       </c>
       <c r="AE58" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>75</v>
@@ -7930,7 +7930,7 @@
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -7949,16 +7949,16 @@
         <v>75</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -7996,19 +7996,19 @@
         <v>75</v>
       </c>
       <c r="AA59" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AB59" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AB59" t="s" s="2">
+      <c r="AC59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD59" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AC59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD59" t="s" s="2">
+      <c r="AE59" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>76</v>
@@ -8020,10 +8020,10 @@
         <v>75</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>75</v>
@@ -8039,10 +8039,10 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>75</v>
@@ -8051,7 +8051,7 @@
         <v>75</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>357</v>
@@ -8121,13 +8121,13 @@
         <v>76</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>364</v>
@@ -8149,19 +8149,19 @@
         <v>76</v>
       </c>
       <c r="F61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="J61" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>367</v>
@@ -8226,13 +8226,13 @@
         <v>76</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>371</v>
@@ -8254,7 +8254,7 @@
         <v>76</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>75</v>
@@ -8263,7 +8263,7 @@
         <v>75</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>209</v>
@@ -8331,13 +8331,13 @@
         <v>76</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>378</v>
@@ -8359,19 +8359,19 @@
         <v>76</v>
       </c>
       <c r="F63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="J63" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>381</v>
@@ -8436,13 +8436,13 @@
         <v>76</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>385</v>
@@ -8464,7 +8464,7 @@
         <v>76</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>75</v>
@@ -8473,7 +8473,7 @@
         <v>75</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>275</v>
@@ -8543,13 +8543,13 @@
         <v>76</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>393</v>
@@ -8573,7 +8573,7 @@
         <v>76</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>75</v>
@@ -8582,7 +8582,7 @@
         <v>75</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J65" t="s" s="2">
         <v>300</v>
@@ -8656,7 +8656,7 @@
         <v>75</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>306</v>
@@ -8678,25 +8678,25 @@
         <v>76</v>
       </c>
       <c r="F66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J66" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J66" t="s" s="2">
+      <c r="K66" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="K66" t="s" s="2">
+      <c r="L66" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8747,22 +8747,22 @@
         <v>75</v>
       </c>
       <c r="AE66" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>75</v>
@@ -8774,7 +8774,7 @@
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -8793,16 +8793,16 @@
         <v>75</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="K67" t="s" s="2">
+      <c r="L67" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -8840,19 +8840,19 @@
         <v>75</v>
       </c>
       <c r="AA67" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AB67" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AB67" t="s" s="2">
+      <c r="AC67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD67" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AC67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD67" t="s" s="2">
+      <c r="AE67" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>76</v>
@@ -8864,10 +8864,10 @@
         <v>75</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>75</v>
@@ -8883,10 +8883,10 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>75</v>
@@ -8895,7 +8895,7 @@
         <v>75</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J68" t="s" s="2">
         <v>357</v>
@@ -8965,13 +8965,13 @@
         <v>76</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>364</v>
@@ -8993,19 +8993,19 @@
         <v>76</v>
       </c>
       <c r="F69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="J69" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>367</v>
@@ -9070,13 +9070,13 @@
         <v>76</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>371</v>
@@ -9098,7 +9098,7 @@
         <v>76</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>75</v>
@@ -9107,7 +9107,7 @@
         <v>75</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J70" t="s" s="2">
         <v>209</v>
@@ -9175,13 +9175,13 @@
         <v>76</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>378</v>
@@ -9203,19 +9203,19 @@
         <v>76</v>
       </c>
       <c r="F71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="J71" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="K71" t="s" s="2">
         <v>381</v>
@@ -9280,13 +9280,13 @@
         <v>76</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>385</v>
@@ -9308,7 +9308,7 @@
         <v>76</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>75</v>
@@ -9317,7 +9317,7 @@
         <v>75</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J72" t="s" s="2">
         <v>275</v>
@@ -9387,13 +9387,13 @@
         <v>76</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>393</v>
@@ -9415,19 +9415,19 @@
         <v>76</v>
       </c>
       <c r="F73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="J73" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>132</v>
@@ -9494,13 +9494,13 @@
         <v>76</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>314</v>
@@ -9531,7 +9531,7 @@
         <v>75</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J74" t="s" s="2">
         <v>168</v>
@@ -9603,7 +9603,7 @@
         <v>75</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>75</v>
@@ -9625,25 +9625,25 @@
         <v>76</v>
       </c>
       <c r="F75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J75" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J75" t="s" s="2">
+      <c r="K75" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="K75" t="s" s="2">
+      <c r="L75" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -9694,22 +9694,22 @@
         <v>75</v>
       </c>
       <c r="AE75" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>75</v>
@@ -9721,7 +9721,7 @@
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -9740,16 +9740,16 @@
         <v>75</v>
       </c>
       <c r="J76" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K76" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="K76" t="s" s="2">
+      <c r="L76" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -9787,19 +9787,19 @@
         <v>75</v>
       </c>
       <c r="AA76" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AB76" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AB76" t="s" s="2">
+      <c r="AC76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD76" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AC76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD76" t="s" s="2">
+      <c r="AE76" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>76</v>
@@ -9811,10 +9811,10 @@
         <v>75</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>75</v>
@@ -9904,7 +9904,7 @@
         <v>75</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>76</v>
@@ -9916,7 +9916,7 @@
         <v>75</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>75</v>
@@ -9938,7 +9938,7 @@
         <v>76</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>75</v>
@@ -9947,7 +9947,7 @@
         <v>75</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J78" t="s" s="2">
         <v>138</v>
@@ -10015,13 +10015,13 @@
         <v>76</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>75</v>
@@ -10043,7 +10043,7 @@
         <v>76</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>75</v>
@@ -10120,7 +10120,7 @@
         <v>76</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>425</v>
@@ -10150,7 +10150,7 @@
         <v>76</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>75</v>
@@ -10229,7 +10229,7 @@
         <v>76</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>425</v>
@@ -10257,7 +10257,7 @@
         <v>76</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>75</v>
@@ -10266,7 +10266,7 @@
         <v>75</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J81" t="s" s="2">
         <v>434</v>
@@ -10334,13 +10334,13 @@
         <v>76</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>439</v>
@@ -10364,7 +10364,7 @@
         <v>76</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>75</v>
@@ -10443,7 +10443,7 @@
         <v>76</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>425</v>
@@ -10455,7 +10455,7 @@
         <v>446</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="83">
@@ -10473,7 +10473,7 @@
         <v>76</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>75</v>
@@ -10552,7 +10552,7 @@
         <v>76</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>425</v>
@@ -10582,7 +10582,7 @@
         <v>76</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>75</v>
@@ -10661,7 +10661,7 @@
         <v>76</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>425</v>
@@ -10689,7 +10689,7 @@
         <v>76</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>75</v>
@@ -10768,7 +10768,7 @@
         <v>76</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>425</v>
@@ -10780,7 +10780,7 @@
         <v>446</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="86">
@@ -10796,7 +10796,7 @@
         <v>76</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>75</v>
@@ -10875,7 +10875,7 @@
         <v>76</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>425</v>
@@ -10903,7 +10903,7 @@
         <v>76</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>75</v>
@@ -10982,7 +10982,7 @@
         <v>76</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>425</v>
